--- a/Excel/Ontologia_NBR_15965_Classes_Propriedades_Nova.xlsx
+++ b/Excel/Ontologia_NBR_15965_Classes_Propriedades_Nova.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5310914-496D-44A8-85EF-2478D35DFAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4680D28-6864-4C32-8BB9-50D2456FE340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -2294,7 +2294,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="144">
+  <dxfs count="142">
     <dxf>
       <font>
         <b val="0"/>
@@ -2344,14 +2344,6 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
         <color theme="0"/>
       </font>
     </dxf>
@@ -2361,14 +2353,6 @@
         <i/>
         <strike val="0"/>
         <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="2" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -13090,40 +13074,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D6CED857-C2BF-4677-8C5F-834E46D52470}" name="Tabla3" displayName="Tabla3" ref="A1:T11" totalsRowShown="0" headerRowDxfId="143" dataDxfId="141" headerRowBorderDxfId="142" tableBorderDxfId="140" totalsRowBorderDxfId="139">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D6CED857-C2BF-4677-8C5F-834E46D52470}" name="Tabla3" displayName="Tabla3" ref="A1:T11" totalsRowShown="0" headerRowDxfId="141" dataDxfId="139" headerRowBorderDxfId="140" tableBorderDxfId="138" totalsRowBorderDxfId="137">
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{CC4C2CFA-E67E-4336-9BB5-CC95CE209F3A}" name="1" dataDxfId="138"/>
-    <tableColumn id="2" xr3:uid="{1E85198B-B82A-4617-B922-C6524B07278C}" name="Raiz" dataDxfId="137"/>
-    <tableColumn id="3" xr3:uid="{14BB3795-364E-4135-B30F-1536628A0684}" name="SuperClass 2" dataDxfId="136"/>
-    <tableColumn id="4" xr3:uid="{CA86440C-110D-4B26-BA53-58A3B612699A}" name="SuperClass 3" dataDxfId="135"/>
-    <tableColumn id="5" xr3:uid="{CFB6B167-F9A9-4C59-BF78-469C27143A56}" name="SuperClass 4" dataDxfId="134"/>
-    <tableColumn id="6" xr3:uid="{E9EB2A4A-1C2E-4684-B37C-2B4423D70D33}" name="Classe 5" dataDxfId="133"/>
-    <tableColumn id="7" xr3:uid="{25899769-1F4E-4DCE-A55D-78DB109775E4}" name="EquivalentTo: Raiz_x000a_Condições necessárias" dataDxfId="132"/>
-    <tableColumn id="8" xr3:uid="{60348FC7-7AFD-4399-9633-F8CDCC05E245}" name="EquivalentTo: Classe2_x000a_Condições necessárias" dataDxfId="131"/>
-    <tableColumn id="9" xr3:uid="{392CCFD9-6E98-49E5-B2DB-7DC015141A7A}" name="EquivalentTo: Classe3_x000a_Condições necessárias" dataDxfId="130"/>
-    <tableColumn id="10" xr3:uid="{DE6C2295-D3C1-4B68-B910-8BAEB1BAE01F}" name="EquivalentTo: Classe4 _x000a_Condições necessárias" dataDxfId="129"/>
-    <tableColumn id="11" xr3:uid="{65DCB7B6-4238-4427-B02F-3BEF502BF71B}" name="EquivalentTo: Classe5_x000a_Condições necess. e sufic." dataDxfId="128"/>
-    <tableColumn id="12" xr3:uid="{8BA2A6D5-A321-435C-B6FE-29DC62E231F0}" name="Anotações de ajuda Classe 1" dataDxfId="127">
+    <tableColumn id="1" xr3:uid="{CC4C2CFA-E67E-4336-9BB5-CC95CE209F3A}" name="1" dataDxfId="136"/>
+    <tableColumn id="2" xr3:uid="{1E85198B-B82A-4617-B922-C6524B07278C}" name="Raiz" dataDxfId="135"/>
+    <tableColumn id="3" xr3:uid="{14BB3795-364E-4135-B30F-1536628A0684}" name="SuperClass 2" dataDxfId="134"/>
+    <tableColumn id="4" xr3:uid="{CA86440C-110D-4B26-BA53-58A3B612699A}" name="SuperClass 3" dataDxfId="133"/>
+    <tableColumn id="5" xr3:uid="{CFB6B167-F9A9-4C59-BF78-469C27143A56}" name="SuperClass 4" dataDxfId="132"/>
+    <tableColumn id="6" xr3:uid="{E9EB2A4A-1C2E-4684-B37C-2B4423D70D33}" name="Classe 5" dataDxfId="131"/>
+    <tableColumn id="7" xr3:uid="{25899769-1F4E-4DCE-A55D-78DB109775E4}" name="EquivalentTo: Raiz_x000a_Condições necessárias" dataDxfId="130"/>
+    <tableColumn id="8" xr3:uid="{60348FC7-7AFD-4399-9633-F8CDCC05E245}" name="EquivalentTo: Classe2_x000a_Condições necessárias" dataDxfId="129"/>
+    <tableColumn id="9" xr3:uid="{392CCFD9-6E98-49E5-B2DB-7DC015141A7A}" name="EquivalentTo: Classe3_x000a_Condições necessárias" dataDxfId="128"/>
+    <tableColumn id="10" xr3:uid="{DE6C2295-D3C1-4B68-B910-8BAEB1BAE01F}" name="EquivalentTo: Classe4 _x000a_Condições necessárias" dataDxfId="127"/>
+    <tableColumn id="11" xr3:uid="{65DCB7B6-4238-4427-B02F-3BEF502BF71B}" name="EquivalentTo: Classe5_x000a_Condições necess. e sufic." dataDxfId="126"/>
+    <tableColumn id="12" xr3:uid="{8BA2A6D5-A321-435C-B6FE-29DC62E231F0}" name="Anotações de ajuda Classe 1" dataDxfId="125">
       <calculatedColumnFormula>_xlfn.CONCAT("Trata-se de: ", SUBSTITUTE(B2,"1.",""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{51FC484F-3B93-4E17-A843-F396271D4F5D}" name="Anotações de ajuda Classe 2" dataDxfId="126">
+    <tableColumn id="13" xr3:uid="{51FC484F-3B93-4E17-A843-F396271D4F5D}" name="Anotações de ajuda Classe 2" dataDxfId="124">
       <calculatedColumnFormula>_xlfn.CONCAT(SUBSTITUTE(C2,"."," ")," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{7D506B35-635A-421F-9FDF-F5A47788A209}" name="Anotações de ajuda Classe 3" dataDxfId="125">
+    <tableColumn id="14" xr3:uid="{7D506B35-635A-421F-9FDF-F5A47788A209}" name="Anotações de ajuda Classe 3" dataDxfId="123">
       <calculatedColumnFormula>_xlfn.CONCAT(SUBSTITUTE(D2,"."," ")," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{43516DA5-EE35-4A99-A73B-6E2C92F2BE17}" name="Anotações de ajuda Classe 4" dataDxfId="124">
+    <tableColumn id="15" xr3:uid="{43516DA5-EE35-4A99-A73B-6E2C92F2BE17}" name="Anotações de ajuda Classe 4" dataDxfId="122">
       <calculatedColumnFormula>_xlfn.CONCAT(SUBSTITUTE(E2,"."," ")," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{BFC47198-B351-4C32-9E17-77914984F825}" name="Anotações de ajuda Classe 5" dataDxfId="123">
+    <tableColumn id="16" xr3:uid="{BFC47198-B351-4C32-9E17-77914984F825}" name="Anotações de ajuda Classe 5" dataDxfId="121">
       <calculatedColumnFormula>_xlfn.CONCAT(L2," ",M2," ",N2," ",O2," ", SUBSTITUTE(F2, ".", " "),". ---&gt; ",Q2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{6BAAEEFE-DA2A-452F-9076-D3CA97DB1856}" name="Anotações de ajuda Classe 6" dataDxfId="122">
+    <tableColumn id="17" xr3:uid="{6BAAEEFE-DA2A-452F-9076-D3CA97DB1856}" name="Anotações de ajuda Classe 6" dataDxfId="120">
       <calculatedColumnFormula>_xlfn.CONCAT("Consultar Sistema de Classificação Construção ",R2,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{627A170C-2776-424D-823A-86498C9B9FEC}" name="Norma" dataDxfId="121"/>
-    <tableColumn id="19" xr3:uid="{36A56800-FCDE-46C6-9DD3-AC3ADDFE99D1}" name="Anotações de ajuda Classe 7" dataDxfId="120"/>
-    <tableColumn id="20" xr3:uid="{ADAFA88C-78DF-4CAA-AFA5-4B2FE34D2B95}" name="Key" dataDxfId="119">
+    <tableColumn id="18" xr3:uid="{627A170C-2776-424D-823A-86498C9B9FEC}" name="Norma" dataDxfId="119"/>
+    <tableColumn id="19" xr3:uid="{36A56800-FCDE-46C6-9DD3-AC3ADDFE99D1}" name="Anotações de ajuda Classe 7" dataDxfId="118"/>
+    <tableColumn id="20" xr3:uid="{ADAFA88C-78DF-4CAA-AFA5-4B2FE34D2B95}" name="Key" dataDxfId="117">
       <calculatedColumnFormula>_xlfn.CONCAT("Normas-key_",A2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13132,38 +13116,38 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F27CC6E-84CF-409B-B2F9-329F4CA10007}" name="Tabla2" displayName="Tabla2" ref="A1:V24" headerRowDxfId="118" dataDxfId="116" totalsRowDxfId="114" headerRowBorderDxfId="117" tableBorderDxfId="115" totalsRowBorderDxfId="113">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F27CC6E-84CF-409B-B2F9-329F4CA10007}" name="Tabla2" displayName="Tabla2" ref="A1:V24" headerRowDxfId="116" dataDxfId="114" totalsRowDxfId="112" headerRowBorderDxfId="115" tableBorderDxfId="113" totalsRowBorderDxfId="111">
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{05405BC3-D147-4C3A-A847-226BE3E20B44}" name="1" totalsRowLabel="Total" dataDxfId="112" totalsRowDxfId="111"/>
-    <tableColumn id="2" xr3:uid="{30674569-14FD-401E-814B-CC39EC080692}" name="SuperData (1)" dataDxfId="110" totalsRowDxfId="109">
+    <tableColumn id="1" xr3:uid="{05405BC3-D147-4C3A-A847-226BE3E20B44}" name="1" totalsRowLabel="Total" dataDxfId="110" totalsRowDxfId="109"/>
+    <tableColumn id="2" xr3:uid="{30674569-14FD-401E-814B-CC39EC080692}" name="SuperData (1)" dataDxfId="108" totalsRowDxfId="107">
       <calculatedColumnFormula>E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{42ACD1E1-902E-4432-A297-A8D4E3E6A39B}" name="PropData(2)" dataDxfId="108" totalsRowDxfId="107"/>
-    <tableColumn id="4" xr3:uid="{08ECA0E2-2D2F-446A-AAF6-2FD891B13A08}" name=" valData (3)" dataDxfId="106" totalsRowDxfId="105"/>
-    <tableColumn id="5" xr3:uid="{6086C35C-A33E-4114-B141-64B11971C1A1}" name="SuperProp (4)" dataDxfId="104" totalsRowDxfId="103"/>
-    <tableColumn id="6" xr3:uid="{535DC925-3C97-4408-B83A-988BF345193E}" name="Propriedade(5)" dataDxfId="102" totalsRowDxfId="101"/>
-    <tableColumn id="7" xr3:uid="{C4D22B6D-94D1-442A-97D3-E1AFB3FE98FC}" name="Functional (6)" dataDxfId="100" totalsRowDxfId="99"/>
-    <tableColumn id="8" xr3:uid="{254C2A3E-98CC-498D-9D66-425CCE933E22}" name="Inv functional  (7)" dataDxfId="98" totalsRowDxfId="97"/>
-    <tableColumn id="9" xr3:uid="{CA66A745-BB10-4919-97C1-491E2A8AFF79}" name="Transitive (8)" dataDxfId="96" totalsRowDxfId="95"/>
-    <tableColumn id="10" xr3:uid="{F220F0EB-8A04-44B3-9F33-2CE7DEAEA278}" name="Symmetric (9)" dataDxfId="94" totalsRowDxfId="93"/>
-    <tableColumn id="11" xr3:uid="{BE3C1D12-0B80-4267-A7C6-AB88FDB359A9}" name="Asymmetric (10)" dataDxfId="92" totalsRowDxfId="91"/>
-    <tableColumn id="12" xr3:uid="{5956D0C5-9C90-4122-B08D-5295FEDB05A7}" name="Reflexive (11)" dataDxfId="90" totalsRowDxfId="89"/>
-    <tableColumn id="13" xr3:uid="{8BF12E7B-7E6E-4F93-8167-49BB8D845A8B}" name="Irreflexive (12)" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="14" xr3:uid="{F6A4A8D6-0928-496A-BF0F-0926974BB64E}" name="Inverse of (13)" dataDxfId="86" totalsRowDxfId="85"/>
-    <tableColumn id="15" xr3:uid="{71CC311B-405A-40DC-A69E-DD1F21998834}" name="Equivalente a(14)" dataDxfId="84" totalsRowDxfId="83"/>
-    <tableColumn id="16" xr3:uid="{D53389E7-5792-4813-AE78-49A25A9EDAF6}" name="Domain  (15)" dataDxfId="82" totalsRowDxfId="81">
+    <tableColumn id="3" xr3:uid="{42ACD1E1-902E-4432-A297-A8D4E3E6A39B}" name="PropData(2)" dataDxfId="106" totalsRowDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{08ECA0E2-2D2F-446A-AAF6-2FD891B13A08}" name=" valData (3)" dataDxfId="104" totalsRowDxfId="103"/>
+    <tableColumn id="5" xr3:uid="{6086C35C-A33E-4114-B141-64B11971C1A1}" name="SuperProp (4)" dataDxfId="102" totalsRowDxfId="101"/>
+    <tableColumn id="6" xr3:uid="{535DC925-3C97-4408-B83A-988BF345193E}" name="Propriedade(5)" dataDxfId="100" totalsRowDxfId="99"/>
+    <tableColumn id="7" xr3:uid="{C4D22B6D-94D1-442A-97D3-E1AFB3FE98FC}" name="Functional (6)" dataDxfId="98" totalsRowDxfId="97"/>
+    <tableColumn id="8" xr3:uid="{254C2A3E-98CC-498D-9D66-425CCE933E22}" name="Inv functional  (7)" dataDxfId="96" totalsRowDxfId="95"/>
+    <tableColumn id="9" xr3:uid="{CA66A745-BB10-4919-97C1-491E2A8AFF79}" name="Transitive (8)" dataDxfId="94" totalsRowDxfId="93"/>
+    <tableColumn id="10" xr3:uid="{F220F0EB-8A04-44B3-9F33-2CE7DEAEA278}" name="Symmetric (9)" dataDxfId="92" totalsRowDxfId="91"/>
+    <tableColumn id="11" xr3:uid="{BE3C1D12-0B80-4267-A7C6-AB88FDB359A9}" name="Asymmetric (10)" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="12" xr3:uid="{5956D0C5-9C90-4122-B08D-5295FEDB05A7}" name="Reflexive (11)" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="13" xr3:uid="{8BF12E7B-7E6E-4F93-8167-49BB8D845A8B}" name="Irreflexive (12)" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="14" xr3:uid="{F6A4A8D6-0928-496A-BF0F-0926974BB64E}" name="Inverse of (13)" dataDxfId="84" totalsRowDxfId="83"/>
+    <tableColumn id="15" xr3:uid="{71CC311B-405A-40DC-A69E-DD1F21998834}" name="Equivalente a(14)" dataDxfId="82" totalsRowDxfId="81"/>
+    <tableColumn id="16" xr3:uid="{D53389E7-5792-4813-AE78-49A25A9EDAF6}" name="Domain  (15)" dataDxfId="80" totalsRowDxfId="79">
       <calculatedColumnFormula>P1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{F9388D82-F1CF-4707-8C27-B9B9F68C7435}" name=" Range (16)" dataDxfId="80" totalsRowDxfId="79">
+    <tableColumn id="17" xr3:uid="{F9388D82-F1CF-4707-8C27-B9B9F68C7435}" name=" Range (16)" dataDxfId="78" totalsRowDxfId="77">
       <calculatedColumnFormula>Q1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{458CD5C3-8971-431C-9F74-B445CB1B4F29}" name="Anot. Ajuda PROP (17)" dataDxfId="78" totalsRowDxfId="77"/>
-    <tableColumn id="19" xr3:uid="{79ADE3D3-2E35-47E2-A082-CFFFD7E257CF}" name="Anot. Ajuda DATA (18)" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="20" xr3:uid="{B1BB07F3-F9E0-4A1C-8EEB-D0705E508AEE}" name="Functional (19)" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="21" xr3:uid="{08560BEC-DA9D-4E18-9876-37313CE0655A}" name="Comentário do Valor(20)" dataDxfId="72" totalsRowDxfId="71">
+    <tableColumn id="18" xr3:uid="{458CD5C3-8971-431C-9F74-B445CB1B4F29}" name="Anot. Ajuda PROP (17)" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="19" xr3:uid="{79ADE3D3-2E35-47E2-A082-CFFFD7E257CF}" name="Anot. Ajuda DATA (18)" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="20" xr3:uid="{B1BB07F3-F9E0-4A1C-8EEB-D0705E508AEE}" name="Functional (19)" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="21" xr3:uid="{08560BEC-DA9D-4E18-9876-37313CE0655A}" name="Comentário do Valor(20)" dataDxfId="70" totalsRowDxfId="69">
       <calculatedColumnFormula>_xlfn.CONCAT("Refere-se a propriedade  ",F2, "  &gt;  ",C2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{B9A108B1-E631-4A2B-AADF-793AB36493B4}" name="Descrição Textual Livre (21)" totalsRowFunction="count" dataDxfId="70" totalsRowDxfId="69">
+    <tableColumn id="22" xr3:uid="{B9A108B1-E631-4A2B-AADF-793AB36493B4}" name="Descrição Textual Livre (21)" totalsRowFunction="count" dataDxfId="68" totalsRowDxfId="67">
       <calculatedColumnFormula>C2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13172,29 +13156,29 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A9A5534D-E861-437F-9B41-152E1BBB3624}" name="Tabla4" displayName="Tabla4" ref="A1:U3" totalsRowShown="0" headerRowDxfId="68" dataDxfId="66" headerRowBorderDxfId="67" tableBorderDxfId="65" totalsRowBorderDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A9A5534D-E861-437F-9B41-152E1BBB3624}" name="Tabla4" displayName="Tabla4" ref="A1:U3" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="63" totalsRowBorderDxfId="62">
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{4F26C7F2-7D06-40CB-B848-F667194D9647}" name="1" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{F921A453-730B-4AC8-852C-EFFDCF030CCA}" name="Disjunta 1" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{23BEAC2C-6ADF-4C5A-B64D-4A2189CA8ACD}" name="Disjunta 2" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{21B9136C-D0D8-484E-A2BE-E4977101D4DB}" name="Disjunta 3" dataDxfId="60"/>
-    <tableColumn id="5" xr3:uid="{1A43957A-CCF1-44E5-BCCD-13F81C3A45EC}" name="Disjunta 4" dataDxfId="59"/>
-    <tableColumn id="6" xr3:uid="{25855431-7914-4676-BDEF-21EDC5AEA531}" name="Disjunta 5" dataDxfId="58"/>
-    <tableColumn id="7" xr3:uid="{B9C6D84B-4C90-464D-8249-79E106486DD3}" name="Disjunta 6" dataDxfId="57"/>
-    <tableColumn id="8" xr3:uid="{F3E92F9C-C39B-4C1E-85C9-15118FEFA66F}" name="Disjunta 7" dataDxfId="56"/>
-    <tableColumn id="9" xr3:uid="{3CC69936-B860-4ABA-AA56-15BBA0C1C3F5}" name="Disjunta 8" dataDxfId="55"/>
-    <tableColumn id="10" xr3:uid="{3FB0F5C3-9FB7-46C3-8C1A-CE12E425D658}" name="Disjunta 9" dataDxfId="54"/>
-    <tableColumn id="11" xr3:uid="{5D16196F-CC26-45A8-8B0C-4607A903F65A}" name="Disjunta 10" dataDxfId="53"/>
-    <tableColumn id="12" xr3:uid="{41A23864-2363-4896-9F54-55AC6CFCE6CD}" name="Disjunta 11" dataDxfId="52"/>
-    <tableColumn id="13" xr3:uid="{DC03A272-46F6-40A7-BA62-43D8BD6241CC}" name="Disjunta 12" dataDxfId="51"/>
-    <tableColumn id="14" xr3:uid="{3C362C12-0371-4E21-9F34-4F9FCD93495D}" name="Disjunta 13" dataDxfId="50"/>
-    <tableColumn id="15" xr3:uid="{07396994-8990-4C41-96A2-BAB03ABDB677}" name="Disjunta 14" dataDxfId="49"/>
-    <tableColumn id="16" xr3:uid="{A03247BB-A7CD-4588-AD22-F4D4AA18275C}" name="Disjunta 15" dataDxfId="48"/>
-    <tableColumn id="17" xr3:uid="{875CA327-F02E-49D1-ABB5-F3413E63868F}" name="Disjunta 16" dataDxfId="47"/>
-    <tableColumn id="18" xr3:uid="{6843B603-EBBA-43D1-8F1B-214357E4C544}" name="Disjunta 17" dataDxfId="46"/>
-    <tableColumn id="19" xr3:uid="{08263685-78DC-449B-9B4F-5565A721B82C}" name="Disjunta 18" dataDxfId="45"/>
-    <tableColumn id="20" xr3:uid="{C3656408-6EB9-4B43-8A8E-4D686919DD2A}" name="Disjunta 19" dataDxfId="44"/>
-    <tableColumn id="21" xr3:uid="{4D5BB609-CA03-4420-BBFE-E94235011FEA}" name="Disjunta 20" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{4F26C7F2-7D06-40CB-B848-F667194D9647}" name="1" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{F921A453-730B-4AC8-852C-EFFDCF030CCA}" name="Disjunta 1" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{23BEAC2C-6ADF-4C5A-B64D-4A2189CA8ACD}" name="Disjunta 2" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{21B9136C-D0D8-484E-A2BE-E4977101D4DB}" name="Disjunta 3" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{1A43957A-CCF1-44E5-BCCD-13F81C3A45EC}" name="Disjunta 4" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{25855431-7914-4676-BDEF-21EDC5AEA531}" name="Disjunta 5" dataDxfId="56"/>
+    <tableColumn id="7" xr3:uid="{B9C6D84B-4C90-464D-8249-79E106486DD3}" name="Disjunta 6" dataDxfId="55"/>
+    <tableColumn id="8" xr3:uid="{F3E92F9C-C39B-4C1E-85C9-15118FEFA66F}" name="Disjunta 7" dataDxfId="54"/>
+    <tableColumn id="9" xr3:uid="{3CC69936-B860-4ABA-AA56-15BBA0C1C3F5}" name="Disjunta 8" dataDxfId="53"/>
+    <tableColumn id="10" xr3:uid="{3FB0F5C3-9FB7-46C3-8C1A-CE12E425D658}" name="Disjunta 9" dataDxfId="52"/>
+    <tableColumn id="11" xr3:uid="{5D16196F-CC26-45A8-8B0C-4607A903F65A}" name="Disjunta 10" dataDxfId="51"/>
+    <tableColumn id="12" xr3:uid="{41A23864-2363-4896-9F54-55AC6CFCE6CD}" name="Disjunta 11" dataDxfId="50"/>
+    <tableColumn id="13" xr3:uid="{DC03A272-46F6-40A7-BA62-43D8BD6241CC}" name="Disjunta 12" dataDxfId="49"/>
+    <tableColumn id="14" xr3:uid="{3C362C12-0371-4E21-9F34-4F9FCD93495D}" name="Disjunta 13" dataDxfId="48"/>
+    <tableColumn id="15" xr3:uid="{07396994-8990-4C41-96A2-BAB03ABDB677}" name="Disjunta 14" dataDxfId="47"/>
+    <tableColumn id="16" xr3:uid="{A03247BB-A7CD-4588-AD22-F4D4AA18275C}" name="Disjunta 15" dataDxfId="46"/>
+    <tableColumn id="17" xr3:uid="{875CA327-F02E-49D1-ABB5-F3413E63868F}" name="Disjunta 16" dataDxfId="45"/>
+    <tableColumn id="18" xr3:uid="{6843B603-EBBA-43D1-8F1B-214357E4C544}" name="Disjunta 17" dataDxfId="44"/>
+    <tableColumn id="19" xr3:uid="{08263685-78DC-449B-9B4F-5565A721B82C}" name="Disjunta 18" dataDxfId="43"/>
+    <tableColumn id="20" xr3:uid="{C3656408-6EB9-4B43-8A8E-4D686919DD2A}" name="Disjunta 19" dataDxfId="42"/>
+    <tableColumn id="21" xr3:uid="{4D5BB609-CA03-4420-BBFE-E94235011FEA}" name="Disjunta 20" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13499,22 +13483,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1CF42B-C783-4349-9A5C-FEC66E5FAE0F}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G32" sqref="G32"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.109375" style="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" style="47" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="47" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" style="47" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" style="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="47" customWidth="1"/>
-    <col min="7" max="10" width="15.33203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.88671875" style="47" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" style="47" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="47" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="47" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="38" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" style="38" customWidth="1"/>
+    <col min="10" max="10" width="13" style="38" customWidth="1"/>
+    <col min="11" max="11" width="14.21875" style="38" customWidth="1"/>
     <col min="12" max="12" width="11" style="47" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.5546875" style="47" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.44140625" style="47" bestFit="1" customWidth="1"/>
@@ -14236,50 +14222,50 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="42" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2 G1:K13 G14:G21 H14:K22 G23:K1048576">
-    <cfRule type="cellIs" dxfId="39" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="13" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F7">
-    <cfRule type="duplicateValues" dxfId="38" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="118"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="120"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F11">
-    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F1048576 F1 G22">
-    <cfRule type="duplicateValues" dxfId="18" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="22"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14297,10 +14283,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6B38C3-987C-42D5-BAB0-D66087DA7BA3}">
   <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B22" sqref="B22"/>
-      <selection pane="bottomLeft" activeCell="V15" sqref="V15"/>
+      <selection pane="bottomLeft" activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14596,11 +14582,11 @@
         <v>19</v>
       </c>
       <c r="P4" s="21" t="str">
-        <f t="shared" ref="P4:Q9" si="5">P3</f>
+        <f t="shared" ref="P4:P7" si="5">P3</f>
         <v>Normativa</v>
       </c>
-      <c r="Q4" s="25" t="str">
-        <f t="shared" si="5"/>
+      <c r="Q4" s="21" t="str">
+        <f t="shared" ref="Q4:Q24" si="6">Q3</f>
         <v>SomaSUS</v>
       </c>
       <c r="R4" s="12" t="str">
@@ -14628,12 +14614,12 @@
         <v>110</v>
       </c>
       <c r="B5" s="22" t="str">
-        <f t="shared" ref="B5:B6" si="6">E5</f>
+        <f t="shared" ref="B5:B6" si="7">E5</f>
         <v>códigos.sus</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f>MID(F5,FIND(".",F5,1)+1,100)</f>
-        <v>volume</v>
+        <f t="shared" ref="C5:C6" si="8">MID(F5,FIND(".",F5,1)+1,100)</f>
+        <v>ambiente</v>
       </c>
       <c r="D5" s="64" t="s">
         <v>3</v>
@@ -14643,7 +14629,7 @@
         <v>códigos.sus</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G5" s="24" t="s">
         <v>19</v>
@@ -14673,31 +14659,31 @@
         <v>19</v>
       </c>
       <c r="P5" s="21" t="str">
-        <f>P4</f>
+        <f t="shared" si="5"/>
         <v>Normativa</v>
       </c>
-      <c r="Q5" s="25" t="str">
-        <f>Q4</f>
+      <c r="Q5" s="21" t="str">
+        <f t="shared" si="6"/>
         <v>SomaSUS</v>
       </c>
       <c r="R5" s="12" t="str">
-        <f t="shared" ref="R5" si="7">_xlfn.CONCAT("Propriedade: ",  F5, "    Domínio: ", P5, "     Range: ", Q5)</f>
-        <v>Propriedade: tem.volume    Domínio: Normativa     Range: SomaSUS</v>
+        <f t="shared" si="1"/>
+        <v>Propriedade: tem.ambiente    Domínio: Normativa     Range: SomaSUS</v>
       </c>
       <c r="S5" s="12" t="str">
-        <f t="shared" ref="S5" si="8">_xlfn.CONCAT("Valor:  ", C5)</f>
-        <v>Valor:  volume</v>
+        <f t="shared" si="2"/>
+        <v>Valor:  ambiente</v>
       </c>
       <c r="T5" s="13" t="s">
         <v>19</v>
       </c>
       <c r="U5" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  tem.volume  &gt;  volume</v>
+        <f>_xlfn.CONCAT("Refere-se a propriedade  ",F5, "  &gt;  ",C5)</f>
+        <v>Refere-se a propriedade  tem.ambiente  &gt;  ambiente</v>
       </c>
       <c r="V5" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>volume</v>
+        <f>C5</f>
+        <v>ambiente</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -14705,22 +14691,22 @@
         <v>111</v>
       </c>
       <c r="B6" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>códigos.sus</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f t="shared" ref="C6:C9" si="9">MID(F6,FIND(".",F6,1)+1,100)</f>
-        <v>ufuncional</v>
+        <f t="shared" si="8"/>
+        <v>equipamento</v>
       </c>
       <c r="D6" s="64" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="2" t="str">
-        <f t="shared" ref="E6:E9" si="10">E5</f>
+        <f t="shared" ref="E6:E9" si="9">E5</f>
         <v>códigos.sus</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>19</v>
@@ -14750,31 +14736,31 @@
         <v>19</v>
       </c>
       <c r="P6" s="21" t="str">
-        <f t="shared" ref="P6:P7" si="11">P5</f>
+        <f t="shared" si="5"/>
         <v>Normativa</v>
       </c>
-      <c r="Q6" s="25" t="str">
-        <f t="shared" ref="Q6:Q7" si="12">Q5</f>
+      <c r="Q6" s="21" t="str">
+        <f t="shared" si="6"/>
         <v>SomaSUS</v>
       </c>
       <c r="R6" s="12" t="str">
-        <f>_xlfn.CONCAT("Propriedade: ",  F6, "    Domínio: ", P6, "     Range: ", Q6)</f>
-        <v>Propriedade: tem.ufuncional    Domínio: Normativa     Range: SomaSUS</v>
+        <f t="shared" si="1"/>
+        <v>Propriedade: tem.equipamento    Domínio: Normativa     Range: SomaSUS</v>
       </c>
       <c r="S6" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Valor:  ufuncional</v>
+        <v>Valor:  equipamento</v>
       </c>
       <c r="T6" s="13" t="s">
         <v>19</v>
       </c>
       <c r="U6" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  tem.ufuncional  &gt;  ufuncional</v>
+        <f>_xlfn.CONCAT("Refere-se a propriedade  ",F6, "  &gt;  ",C6)</f>
+        <v>Refere-se a propriedade  tem.equipamento  &gt;  equipamento</v>
       </c>
       <c r="V6" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>ufuncional</v>
+        <f>C6</f>
+        <v>equipamento</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -14782,22 +14768,22 @@
         <v>112</v>
       </c>
       <c r="B7" s="22" t="str">
-        <f t="shared" ref="B7:B9" si="13">E7</f>
+        <f t="shared" ref="B7:B8" si="10">E7</f>
         <v>códigos.sus</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>setor</v>
+        <f>MID(F7,FIND(".",F7,1)+1,100)</f>
+        <v>ufuncional</v>
       </c>
       <c r="D7" s="64" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>códigos.sus</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G7" s="24" t="s">
         <v>19</v>
@@ -14827,31 +14813,31 @@
         <v>19</v>
       </c>
       <c r="P7" s="21" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>Normativa</v>
       </c>
-      <c r="Q7" s="25" t="str">
-        <f t="shared" si="12"/>
+      <c r="Q7" s="21" t="str">
+        <f t="shared" si="6"/>
         <v>SomaSUS</v>
       </c>
       <c r="R7" s="12" t="str">
-        <f>_xlfn.CONCAT("Propriedade: ",  F7, "    Domínio: ", P7, "     Range: ", Q7)</f>
-        <v>Propriedade: tem.setor    Domínio: Normativa     Range: SomaSUS</v>
+        <f t="shared" ref="R7" si="11">_xlfn.CONCAT("Propriedade: ",  F7, "    Domínio: ", P7, "     Range: ", Q7)</f>
+        <v>Propriedade: tem.ufuncional    Domínio: Normativa     Range: SomaSUS</v>
       </c>
       <c r="S7" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>Valor:  setor</v>
+        <f t="shared" ref="S7" si="12">_xlfn.CONCAT("Valor:  ", C7)</f>
+        <v>Valor:  ufuncional</v>
       </c>
       <c r="T7" s="13" t="s">
         <v>19</v>
       </c>
       <c r="U7" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  tem.setor  &gt;  setor</v>
+        <v>Refere-se a propriedade  tem.ufuncional  &gt;  ufuncional</v>
       </c>
       <c r="V7" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>setor</v>
+        <v>ufuncional</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -14859,22 +14845,22 @@
         <v>113</v>
       </c>
       <c r="B8" s="22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>códigos.sus</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>ambiente</v>
+        <f t="shared" ref="C8:C9" si="13">MID(F8,FIND(".",F8,1)+1,100)</f>
+        <v>volume</v>
       </c>
       <c r="D8" s="64" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>códigos.sus</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G8" s="24" t="s">
         <v>19</v>
@@ -14904,31 +14890,31 @@
         <v>19</v>
       </c>
       <c r="P8" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="P8:P9" si="14">P7</f>
         <v>Normativa</v>
       </c>
-      <c r="Q8" s="25" t="str">
-        <f t="shared" si="5"/>
+      <c r="Q8" s="21" t="str">
+        <f t="shared" si="6"/>
         <v>SomaSUS</v>
       </c>
       <c r="R8" s="12" t="str">
         <f>_xlfn.CONCAT("Propriedade: ",  F8, "    Domínio: ", P8, "     Range: ", Q8)</f>
-        <v>Propriedade: tem.ambiente    Domínio: Normativa     Range: SomaSUS</v>
+        <v>Propriedade: tem.volume    Domínio: Normativa     Range: SomaSUS</v>
       </c>
       <c r="S8" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Valor:  ambiente</v>
+        <v>Valor:  volume</v>
       </c>
       <c r="T8" s="13" t="s">
         <v>19</v>
       </c>
       <c r="U8" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  tem.ambiente  &gt;  ambiente</v>
+        <v>Refere-se a propriedade  tem.volume  &gt;  volume</v>
       </c>
       <c r="V8" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>ambiente</v>
+        <v>volume</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -14936,22 +14922,22 @@
         <v>114</v>
       </c>
       <c r="B9" s="22" t="str">
+        <f t="shared" ref="B9" si="15">E9</f>
+        <v>códigos.sus</v>
+      </c>
+      <c r="C9" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>códigos.sus</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>equipamento</v>
+        <v>setor</v>
       </c>
       <c r="D9" s="64" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>códigos.sus</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G9" s="24" t="s">
         <v>19</v>
@@ -14981,31 +14967,31 @@
         <v>19</v>
       </c>
       <c r="P9" s="21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>Normativa</v>
       </c>
       <c r="Q9" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="Q8:Q9" si="16">Q8</f>
         <v>SomaSUS</v>
       </c>
       <c r="R9" s="12" t="str">
         <f>_xlfn.CONCAT("Propriedade: ",  F9, "    Domínio: ", P9, "     Range: ", Q9)</f>
-        <v>Propriedade: tem.equipamento    Domínio: Normativa     Range: SomaSUS</v>
+        <v>Propriedade: tem.setor    Domínio: Normativa     Range: SomaSUS</v>
       </c>
       <c r="S9" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Valor:  equipamento</v>
+        <v>Valor:  setor</v>
       </c>
       <c r="T9" s="13" t="s">
         <v>19</v>
       </c>
       <c r="U9" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  tem.equipamento  &gt;  equipamento</v>
+        <v>Refere-se a propriedade  tem.setor  &gt;  setor</v>
       </c>
       <c r="V9" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>equipamento</v>
+        <v>setor</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -15210,11 +15196,11 @@
         <v>19</v>
       </c>
       <c r="P12" s="21" t="str">
-        <f t="shared" ref="P12:P24" si="14">P11</f>
+        <f t="shared" ref="P12:P24" si="17">P11</f>
         <v>Normativa</v>
       </c>
       <c r="Q12" s="25" t="str">
-        <f t="shared" ref="Q12:Q24" si="15">Q11</f>
+        <f t="shared" ref="Q12:Q24" si="18">Q11</f>
         <v>NormaNBR</v>
       </c>
       <c r="R12" s="12" t="str">
@@ -15287,11 +15273,11 @@
         <v>19</v>
       </c>
       <c r="P13" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Normativa</v>
       </c>
       <c r="Q13" s="25" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>NormaNBR</v>
       </c>
       <c r="R13" s="12" t="str">
@@ -15319,18 +15305,18 @@
         <v>119</v>
       </c>
       <c r="B14" s="22" t="str">
-        <f t="shared" ref="B14:B24" si="16">E14</f>
+        <f t="shared" ref="B14:B24" si="19">E14</f>
         <v>códigos.nbr</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f t="shared" ref="C14:C24" si="17">MID(F14,FIND(".",F14,1)+1,100)</f>
+        <f t="shared" ref="C14:C24" si="20">MID(F14,FIND(".",F14,1)+1,100)</f>
         <v>código-nbr</v>
       </c>
       <c r="D14" s="64" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="2" t="str">
-        <f t="shared" ref="E14:E24" si="18">E13</f>
+        <f t="shared" ref="E14:E24" si="21">E13</f>
         <v>códigos.nbr</v>
       </c>
       <c r="F14" s="27" t="s">
@@ -15364,11 +15350,11 @@
         <v>19</v>
       </c>
       <c r="P14" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Normativa</v>
       </c>
       <c r="Q14" s="25" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>NormaNBR</v>
       </c>
       <c r="R14" s="12" t="str">
@@ -15396,18 +15382,18 @@
         <v>120</v>
       </c>
       <c r="B15" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>códigos.nbr</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>código-n0</v>
       </c>
       <c r="D15" s="64" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>códigos.nbr</v>
       </c>
       <c r="F15" s="27" t="s">
@@ -15441,11 +15427,11 @@
         <v>19</v>
       </c>
       <c r="P15" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Normativa</v>
       </c>
       <c r="Q15" s="25" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>NormaNBR</v>
       </c>
       <c r="R15" s="12" t="str">
@@ -15473,18 +15459,18 @@
         <v>121</v>
       </c>
       <c r="B16" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>códigos.nbr</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>código-n1</v>
       </c>
       <c r="D16" s="64" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>códigos.nbr</v>
       </c>
       <c r="F16" s="27" t="s">
@@ -15518,11 +15504,11 @@
         <v>19</v>
       </c>
       <c r="P16" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Normativa</v>
       </c>
       <c r="Q16" s="25" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>NormaNBR</v>
       </c>
       <c r="R16" s="12" t="str">
@@ -15550,18 +15536,18 @@
         <v>122</v>
       </c>
       <c r="B17" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>códigos.nbr</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>código-n2</v>
       </c>
       <c r="D17" s="64" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>códigos.nbr</v>
       </c>
       <c r="F17" s="27" t="s">
@@ -15595,11 +15581,11 @@
         <v>19</v>
       </c>
       <c r="P17" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Normativa</v>
       </c>
       <c r="Q17" s="25" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>NormaNBR</v>
       </c>
       <c r="R17" s="12" t="str">
@@ -15627,18 +15613,18 @@
         <v>123</v>
       </c>
       <c r="B18" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>códigos.nbr</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>código-n3</v>
       </c>
       <c r="D18" s="64" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>códigos.nbr</v>
       </c>
       <c r="F18" s="27" t="s">
@@ -15672,11 +15658,11 @@
         <v>19</v>
       </c>
       <c r="P18" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Normativa</v>
       </c>
       <c r="Q18" s="25" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>NormaNBR</v>
       </c>
       <c r="R18" s="12" t="str">
@@ -15704,18 +15690,18 @@
         <v>124</v>
       </c>
       <c r="B19" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>códigos.nbr</v>
       </c>
       <c r="C19" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>código-n4</v>
       </c>
       <c r="D19" s="64" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>códigos.nbr</v>
       </c>
       <c r="F19" s="27" t="s">
@@ -15749,11 +15735,11 @@
         <v>19</v>
       </c>
       <c r="P19" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Normativa</v>
       </c>
       <c r="Q19" s="25" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>NormaNBR</v>
       </c>
       <c r="R19" s="12" t="str">
@@ -15785,14 +15771,14 @@
         <v>códigos.nbr</v>
       </c>
       <c r="C20" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>código-n5</v>
       </c>
       <c r="D20" s="64" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>códigos.nbr</v>
       </c>
       <c r="F20" s="27" t="s">
@@ -15826,11 +15812,11 @@
         <v>19</v>
       </c>
       <c r="P20" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Normativa</v>
       </c>
       <c r="Q20" s="25" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>NormaNBR</v>
       </c>
       <c r="R20" s="12" t="str">
@@ -15862,14 +15848,14 @@
         <v>códigos.nbr</v>
       </c>
       <c r="C21" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>código-n6</v>
       </c>
       <c r="D21" s="64" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>códigos.nbr</v>
       </c>
       <c r="F21" s="27" t="s">
@@ -15903,11 +15889,11 @@
         <v>19</v>
       </c>
       <c r="P21" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Normativa</v>
       </c>
       <c r="Q21" s="25" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>NormaNBR</v>
       </c>
       <c r="R21" s="12" t="str">
@@ -15939,14 +15925,14 @@
         <v>códigos.nbr</v>
       </c>
       <c r="C22" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>código-n7</v>
       </c>
       <c r="D22" s="64" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>códigos.nbr</v>
       </c>
       <c r="F22" s="27" t="s">
@@ -15980,11 +15966,11 @@
         <v>19</v>
       </c>
       <c r="P22" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Normativa</v>
       </c>
       <c r="Q22" s="25" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>NormaNBR</v>
       </c>
       <c r="R22" s="12" t="str">
@@ -16016,14 +16002,14 @@
         <v>códigos.nbr</v>
       </c>
       <c r="C23" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>código-n8</v>
       </c>
       <c r="D23" s="64" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>códigos.nbr</v>
       </c>
       <c r="F23" s="27" t="s">
@@ -16057,11 +16043,11 @@
         <v>19</v>
       </c>
       <c r="P23" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Normativa</v>
       </c>
       <c r="Q23" s="25" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>NormaNBR</v>
       </c>
       <c r="R23" s="12" t="str">
@@ -16089,18 +16075,18 @@
         <v>155</v>
       </c>
       <c r="B24" s="22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>códigos.nbr</v>
       </c>
       <c r="C24" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>código-n9</v>
       </c>
       <c r="D24" s="64" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>códigos.nbr</v>
       </c>
       <c r="F24" s="27" t="s">
@@ -16134,11 +16120,11 @@
         <v>19</v>
       </c>
       <c r="P24" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>Normativa</v>
       </c>
       <c r="Q24" s="25" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>NormaNBR</v>
       </c>
       <c r="R24" s="12" t="str">
@@ -16317,28 +16303,18 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2 D2:E2 B11:B24 E11:E24">
-    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
+  <conditionalFormatting sqref="B2 D2:E2 B11:B24 E11:E24 B4:B9 E4:E9">
+    <cfRule type="cellIs" dxfId="8" priority="17" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B9">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D24">
-    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
+  <conditionalFormatting sqref="Q9 D3:D24">
+    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E9">
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16357,7 +16333,7 @@
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1 Q4:Q9">
+  <conditionalFormatting sqref="Q1">
     <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>"null"</formula>
     </cfRule>

--- a/Excel/Ontologia_NBR_15965_Classes_Propriedades_Nova.xlsx
+++ b/Excel/Ontologia_NBR_15965_Classes_Propriedades_Nova.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4680D28-6864-4C32-8BB9-50D2456FE340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F939E7-F7B7-4E88-9057-19D0FD483EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -1629,36 +1629,6 @@
     <t>SUS-SomaSUS</t>
   </si>
   <si>
-    <t>tem.código-n0</t>
-  </si>
-  <si>
-    <t>tem.código-n1</t>
-  </si>
-  <si>
-    <t>tem.código-n2</t>
-  </si>
-  <si>
-    <t>tem.código-n3</t>
-  </si>
-  <si>
-    <t>tem.código-n4</t>
-  </si>
-  <si>
-    <t>tem.código-n5</t>
-  </si>
-  <si>
-    <t>tem.código-n6</t>
-  </si>
-  <si>
-    <t>tem.código-n7</t>
-  </si>
-  <si>
-    <t>tem.código-n8</t>
-  </si>
-  <si>
-    <t>tem.código-n9</t>
-  </si>
-  <si>
     <t>códigos.sus</t>
   </si>
   <si>
@@ -1705,6 +1675,36 @@
   </si>
   <si>
     <t>24</t>
+  </si>
+  <si>
+    <t>tem.nbrcod-n0</t>
+  </si>
+  <si>
+    <t>tem.nbrcod-n1</t>
+  </si>
+  <si>
+    <t>tem.nbrcod-n2</t>
+  </si>
+  <si>
+    <t>tem.nbrcod-n3</t>
+  </si>
+  <si>
+    <t>tem.nbrcod-n4</t>
+  </si>
+  <si>
+    <t>tem.nbrcod-n5</t>
+  </si>
+  <si>
+    <t>tem.nbrcod-n6</t>
+  </si>
+  <si>
+    <t>tem.nbrcod-n7</t>
+  </si>
+  <si>
+    <t>tem.nbrcod-n8</t>
+  </si>
+  <si>
+    <t>tem.nbrcod-n9</t>
   </si>
 </sst>
 </file>
@@ -13580,19 +13580,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>66</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G2" s="36" t="s">
         <v>19</v>
@@ -13649,7 +13649,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>63</v>
@@ -13718,7 +13718,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>63</v>
@@ -14286,7 +14286,7 @@
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B22" sqref="B22"/>
-      <selection pane="bottomLeft" activeCell="T6" sqref="T6"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14430,7 +14430,7 @@
         <v>19</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="Q2" s="11" t="s">
         <v>102</v>
@@ -14475,7 +14475,7 @@
         <v>de.classificação</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G3" s="20" t="s">
         <v>19</v>
@@ -14552,7 +14552,7 @@
         <v>códigos.sus</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="G4" s="24" t="s">
         <v>19</v>
@@ -14586,7 +14586,7 @@
         <v>Normativa</v>
       </c>
       <c r="Q4" s="21" t="str">
-        <f t="shared" ref="Q4:Q24" si="6">Q3</f>
+        <f t="shared" ref="Q4:Q8" si="6">Q3</f>
         <v>SomaSUS</v>
       </c>
       <c r="R4" s="12" t="str">
@@ -14629,7 +14629,7 @@
         <v>códigos.sus</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="G5" s="24" t="s">
         <v>19</v>
@@ -14706,7 +14706,7 @@
         <v>códigos.sus</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>19</v>
@@ -14783,7 +14783,7 @@
         <v>códigos.sus</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G7" s="24" t="s">
         <v>19</v>
@@ -14860,7 +14860,7 @@
         <v>códigos.sus</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G8" s="24" t="s">
         <v>19</v>
@@ -14937,7 +14937,7 @@
         <v>códigos.sus</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="G9" s="24" t="s">
         <v>19</v>
@@ -14971,7 +14971,7 @@
         <v>Normativa</v>
       </c>
       <c r="Q9" s="25" t="str">
-        <f t="shared" ref="Q8:Q9" si="16">Q8</f>
+        <f t="shared" ref="Q9" si="16">Q8</f>
         <v>SomaSUS</v>
       </c>
       <c r="R9" s="12" t="str">
@@ -15014,7 +15014,7 @@
         <v>de.classificação</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G10" s="20" t="s">
         <v>19</v>
@@ -15044,10 +15044,10 @@
         <v>19</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="Q10" s="26" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="R10" s="12" t="str">
         <f t="shared" si="1"/>
@@ -15166,7 +15166,7 @@
         <v>códigos.nbr</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="G12" s="24" t="s">
         <v>19</v>
@@ -15320,7 +15320,7 @@
         <v>códigos.nbr</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G14" s="24" t="s">
         <v>19</v>
@@ -15387,7 +15387,7 @@
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>código-n0</v>
+        <v>nbrcod-n0</v>
       </c>
       <c r="D15" s="64" t="s">
         <v>3</v>
@@ -15397,7 +15397,7 @@
         <v>códigos.nbr</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="G15" s="24" t="s">
         <v>19</v>
@@ -15436,22 +15436,22 @@
       </c>
       <c r="R15" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Propriedade: tem.código-n0    Domínio: Normativa     Range: NormaNBR</v>
+        <v>Propriedade: tem.nbrcod-n0    Domínio: Normativa     Range: NormaNBR</v>
       </c>
       <c r="S15" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Valor:  código-n0</v>
+        <v>Valor:  nbrcod-n0</v>
       </c>
       <c r="T15" s="13" t="s">
         <v>19</v>
       </c>
       <c r="U15" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  tem.código-n0  &gt;  código-n0</v>
+        <v>Refere-se a propriedade  tem.nbrcod-n0  &gt;  nbrcod-n0</v>
       </c>
       <c r="V15" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>código-n0</v>
+        <v>nbrcod-n0</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -15464,7 +15464,7 @@
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>código-n1</v>
+        <v>nbrcod-n1</v>
       </c>
       <c r="D16" s="64" t="s">
         <v>3</v>
@@ -15474,7 +15474,7 @@
         <v>códigos.nbr</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="G16" s="24" t="s">
         <v>19</v>
@@ -15513,22 +15513,22 @@
       </c>
       <c r="R16" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Propriedade: tem.código-n1    Domínio: Normativa     Range: NormaNBR</v>
+        <v>Propriedade: tem.nbrcod-n1    Domínio: Normativa     Range: NormaNBR</v>
       </c>
       <c r="S16" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Valor:  código-n1</v>
+        <v>Valor:  nbrcod-n1</v>
       </c>
       <c r="T16" s="13" t="s">
         <v>19</v>
       </c>
       <c r="U16" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  tem.código-n1  &gt;  código-n1</v>
+        <v>Refere-se a propriedade  tem.nbrcod-n1  &gt;  nbrcod-n1</v>
       </c>
       <c r="V16" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>código-n1</v>
+        <v>nbrcod-n1</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -15541,7 +15541,7 @@
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>código-n2</v>
+        <v>nbrcod-n2</v>
       </c>
       <c r="D17" s="64" t="s">
         <v>3</v>
@@ -15551,7 +15551,7 @@
         <v>códigos.nbr</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="G17" s="24" t="s">
         <v>19</v>
@@ -15590,22 +15590,22 @@
       </c>
       <c r="R17" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Propriedade: tem.código-n2    Domínio: Normativa     Range: NormaNBR</v>
+        <v>Propriedade: tem.nbrcod-n2    Domínio: Normativa     Range: NormaNBR</v>
       </c>
       <c r="S17" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Valor:  código-n2</v>
+        <v>Valor:  nbrcod-n2</v>
       </c>
       <c r="T17" s="13" t="s">
         <v>19</v>
       </c>
       <c r="U17" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  tem.código-n2  &gt;  código-n2</v>
+        <v>Refere-se a propriedade  tem.nbrcod-n2  &gt;  nbrcod-n2</v>
       </c>
       <c r="V17" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>código-n2</v>
+        <v>nbrcod-n2</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -15618,7 +15618,7 @@
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>código-n3</v>
+        <v>nbrcod-n3</v>
       </c>
       <c r="D18" s="64" t="s">
         <v>3</v>
@@ -15628,7 +15628,7 @@
         <v>códigos.nbr</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="G18" s="24" t="s">
         <v>19</v>
@@ -15667,22 +15667,22 @@
       </c>
       <c r="R18" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Propriedade: tem.código-n3    Domínio: Normativa     Range: NormaNBR</v>
+        <v>Propriedade: tem.nbrcod-n3    Domínio: Normativa     Range: NormaNBR</v>
       </c>
       <c r="S18" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Valor:  código-n3</v>
+        <v>Valor:  nbrcod-n3</v>
       </c>
       <c r="T18" s="13" t="s">
         <v>19</v>
       </c>
       <c r="U18" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  tem.código-n3  &gt;  código-n3</v>
+        <v>Refere-se a propriedade  tem.nbrcod-n3  &gt;  nbrcod-n3</v>
       </c>
       <c r="V18" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>código-n3</v>
+        <v>nbrcod-n3</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -15695,7 +15695,7 @@
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>código-n4</v>
+        <v>nbrcod-n4</v>
       </c>
       <c r="D19" s="64" t="s">
         <v>3</v>
@@ -15705,7 +15705,7 @@
         <v>códigos.nbr</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="G19" s="24" t="s">
         <v>19</v>
@@ -15744,22 +15744,22 @@
       </c>
       <c r="R19" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Propriedade: tem.código-n4    Domínio: Normativa     Range: NormaNBR</v>
+        <v>Propriedade: tem.nbrcod-n4    Domínio: Normativa     Range: NormaNBR</v>
       </c>
       <c r="S19" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Valor:  código-n4</v>
+        <v>Valor:  nbrcod-n4</v>
       </c>
       <c r="T19" s="13" t="s">
         <v>19</v>
       </c>
       <c r="U19" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  tem.código-n4  &gt;  código-n4</v>
+        <v>Refere-se a propriedade  tem.nbrcod-n4  &gt;  nbrcod-n4</v>
       </c>
       <c r="V19" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>código-n4</v>
+        <v>nbrcod-n4</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -15772,7 +15772,7 @@
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>código-n5</v>
+        <v>nbrcod-n5</v>
       </c>
       <c r="D20" s="64" t="s">
         <v>3</v>
@@ -15782,7 +15782,7 @@
         <v>códigos.nbr</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="G20" s="24" t="s">
         <v>19</v>
@@ -15821,22 +15821,22 @@
       </c>
       <c r="R20" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Propriedade: tem.código-n5    Domínio: Normativa     Range: NormaNBR</v>
+        <v>Propriedade: tem.nbrcod-n5    Domínio: Normativa     Range: NormaNBR</v>
       </c>
       <c r="S20" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Valor:  código-n5</v>
+        <v>Valor:  nbrcod-n5</v>
       </c>
       <c r="T20" s="13" t="s">
         <v>19</v>
       </c>
       <c r="U20" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  tem.código-n5  &gt;  código-n5</v>
+        <v>Refere-se a propriedade  tem.nbrcod-n5  &gt;  nbrcod-n5</v>
       </c>
       <c r="V20" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>código-n5</v>
+        <v>nbrcod-n5</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -15849,7 +15849,7 @@
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>código-n6</v>
+        <v>nbrcod-n6</v>
       </c>
       <c r="D21" s="64" t="s">
         <v>3</v>
@@ -15859,7 +15859,7 @@
         <v>códigos.nbr</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="G21" s="24" t="s">
         <v>19</v>
@@ -15898,22 +15898,22 @@
       </c>
       <c r="R21" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Propriedade: tem.código-n6    Domínio: Normativa     Range: NormaNBR</v>
+        <v>Propriedade: tem.nbrcod-n6    Domínio: Normativa     Range: NormaNBR</v>
       </c>
       <c r="S21" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Valor:  código-n6</v>
+        <v>Valor:  nbrcod-n6</v>
       </c>
       <c r="T21" s="13" t="s">
         <v>19</v>
       </c>
       <c r="U21" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  tem.código-n6  &gt;  código-n6</v>
+        <v>Refere-se a propriedade  tem.nbrcod-n6  &gt;  nbrcod-n6</v>
       </c>
       <c r="V21" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>código-n6</v>
+        <v>nbrcod-n6</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -15926,7 +15926,7 @@
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>código-n7</v>
+        <v>nbrcod-n7</v>
       </c>
       <c r="D22" s="64" t="s">
         <v>3</v>
@@ -15936,7 +15936,7 @@
         <v>códigos.nbr</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="G22" s="24" t="s">
         <v>19</v>
@@ -15975,27 +15975,27 @@
       </c>
       <c r="R22" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Propriedade: tem.código-n7    Domínio: Normativa     Range: NormaNBR</v>
+        <v>Propriedade: tem.nbrcod-n7    Domínio: Normativa     Range: NormaNBR</v>
       </c>
       <c r="S22" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Valor:  código-n7</v>
+        <v>Valor:  nbrcod-n7</v>
       </c>
       <c r="T22" s="13" t="s">
         <v>19</v>
       </c>
       <c r="U22" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  tem.código-n7  &gt;  código-n7</v>
+        <v>Refere-se a propriedade  tem.nbrcod-n7  &gt;  nbrcod-n7</v>
       </c>
       <c r="V22" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>código-n7</v>
+        <v>nbrcod-n7</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B23" s="22" t="str">
         <f>E23</f>
@@ -16003,7 +16003,7 @@
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>código-n8</v>
+        <v>nbrcod-n8</v>
       </c>
       <c r="D23" s="64" t="s">
         <v>3</v>
@@ -16013,7 +16013,7 @@
         <v>códigos.nbr</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="G23" s="24" t="s">
         <v>19</v>
@@ -16052,27 +16052,27 @@
       </c>
       <c r="R23" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Propriedade: tem.código-n8    Domínio: Normativa     Range: NormaNBR</v>
+        <v>Propriedade: tem.nbrcod-n8    Domínio: Normativa     Range: NormaNBR</v>
       </c>
       <c r="S23" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Valor:  código-n8</v>
+        <v>Valor:  nbrcod-n8</v>
       </c>
       <c r="T23" s="13" t="s">
         <v>19</v>
       </c>
       <c r="U23" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  tem.código-n8  &gt;  código-n8</v>
+        <v>Refere-se a propriedade  tem.nbrcod-n8  &gt;  nbrcod-n8</v>
       </c>
       <c r="V23" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>código-n8</v>
+        <v>nbrcod-n8</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B24" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16080,7 +16080,7 @@
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>código-n9</v>
+        <v>nbrcod-n9</v>
       </c>
       <c r="D24" s="64" t="s">
         <v>3</v>
@@ -16090,7 +16090,7 @@
         <v>códigos.nbr</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="G24" s="24" t="s">
         <v>19</v>
@@ -16129,22 +16129,22 @@
       </c>
       <c r="R24" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Propriedade: tem.código-n9    Domínio: Normativa     Range: NormaNBR</v>
+        <v>Propriedade: tem.nbrcod-n9    Domínio: Normativa     Range: NormaNBR</v>
       </c>
       <c r="S24" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>Valor:  código-n9</v>
+        <v>Valor:  nbrcod-n9</v>
       </c>
       <c r="T24" s="13" t="s">
         <v>19</v>
       </c>
       <c r="U24" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  tem.código-n9  &gt;  código-n9</v>
+        <v>Refere-se a propriedade  tem.nbrcod-n9  &gt;  nbrcod-n9</v>
       </c>
       <c r="V24" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>código-n9</v>
+        <v>nbrcod-n9</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -16303,12 +16303,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2 D2:E2 B11:B24 E11:E24 B4:B9 E4:E9">
+  <conditionalFormatting sqref="B2 D2:E2 B4:B9 E4:E9 B11:B24 E11:E24">
     <cfRule type="cellIs" dxfId="8" priority="17" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q9 D3:D24">
+  <conditionalFormatting sqref="D3:D24 Q9">
     <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
       <formula>"null"</formula>
     </cfRule>

--- a/Excel/Ontologia_NBR_15965_Classes_Propriedades_Nova.xlsx
+++ b/Excel/Ontologia_NBR_15965_Classes_Propriedades_Nova.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F939E7-F7B7-4E88-9057-19D0FD483EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CA1608-A1DA-4163-9652-8B23726D81A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="23" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="155">
   <si>
     <t>Anotações de ajuda Classe 3</t>
   </si>
@@ -1558,9 +1558,6 @@
   </si>
   <si>
     <t>TemaRDC</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>3</t>
@@ -2248,9 +2245,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2290,11 +2284,51 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="142">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <name val="Arial Nova Cond"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -5363,43 +5397,6 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <name val="Arial Nova Cond"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
           <bgColor theme="5" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
@@ -13107,7 +13104,7 @@
     </tableColumn>
     <tableColumn id="18" xr3:uid="{627A170C-2776-424D-823A-86498C9B9FEC}" name="Norma" dataDxfId="119"/>
     <tableColumn id="19" xr3:uid="{36A56800-FCDE-46C6-9DD3-AC3ADDFE99D1}" name="Anotações de ajuda Classe 7" dataDxfId="118"/>
-    <tableColumn id="20" xr3:uid="{ADAFA88C-78DF-4CAA-AFA5-4B2FE34D2B95}" name="Key" dataDxfId="117">
+    <tableColumn id="20" xr3:uid="{ADAFA88C-78DF-4CAA-AFA5-4B2FE34D2B95}" name="Key" dataDxfId="0">
       <calculatedColumnFormula>_xlfn.CONCAT("Normas-key_",A2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13116,38 +13113,38 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F27CC6E-84CF-409B-B2F9-329F4CA10007}" name="Tabla2" displayName="Tabla2" ref="A1:V24" headerRowDxfId="116" dataDxfId="114" totalsRowDxfId="112" headerRowBorderDxfId="115" tableBorderDxfId="113" totalsRowBorderDxfId="111">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F27CC6E-84CF-409B-B2F9-329F4CA10007}" name="Tabla2" displayName="Tabla2" ref="A1:V24" headerRowDxfId="117" dataDxfId="115" totalsRowDxfId="113" headerRowBorderDxfId="116" tableBorderDxfId="114" totalsRowBorderDxfId="112">
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{05405BC3-D147-4C3A-A847-226BE3E20B44}" name="1" totalsRowLabel="Total" dataDxfId="110" totalsRowDxfId="109"/>
-    <tableColumn id="2" xr3:uid="{30674569-14FD-401E-814B-CC39EC080692}" name="SuperData (1)" dataDxfId="108" totalsRowDxfId="107">
+    <tableColumn id="1" xr3:uid="{05405BC3-D147-4C3A-A847-226BE3E20B44}" name="1" totalsRowLabel="Total" dataDxfId="111" totalsRowDxfId="110"/>
+    <tableColumn id="2" xr3:uid="{30674569-14FD-401E-814B-CC39EC080692}" name="SuperData (1)" dataDxfId="109" totalsRowDxfId="108">
       <calculatedColumnFormula>E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{42ACD1E1-902E-4432-A297-A8D4E3E6A39B}" name="PropData(2)" dataDxfId="106" totalsRowDxfId="105"/>
-    <tableColumn id="4" xr3:uid="{08ECA0E2-2D2F-446A-AAF6-2FD891B13A08}" name=" valData (3)" dataDxfId="104" totalsRowDxfId="103"/>
-    <tableColumn id="5" xr3:uid="{6086C35C-A33E-4114-B141-64B11971C1A1}" name="SuperProp (4)" dataDxfId="102" totalsRowDxfId="101"/>
-    <tableColumn id="6" xr3:uid="{535DC925-3C97-4408-B83A-988BF345193E}" name="Propriedade(5)" dataDxfId="100" totalsRowDxfId="99"/>
-    <tableColumn id="7" xr3:uid="{C4D22B6D-94D1-442A-97D3-E1AFB3FE98FC}" name="Functional (6)" dataDxfId="98" totalsRowDxfId="97"/>
-    <tableColumn id="8" xr3:uid="{254C2A3E-98CC-498D-9D66-425CCE933E22}" name="Inv functional  (7)" dataDxfId="96" totalsRowDxfId="95"/>
-    <tableColumn id="9" xr3:uid="{CA66A745-BB10-4919-97C1-491E2A8AFF79}" name="Transitive (8)" dataDxfId="94" totalsRowDxfId="93"/>
-    <tableColumn id="10" xr3:uid="{F220F0EB-8A04-44B3-9F33-2CE7DEAEA278}" name="Symmetric (9)" dataDxfId="92" totalsRowDxfId="91"/>
-    <tableColumn id="11" xr3:uid="{BE3C1D12-0B80-4267-A7C6-AB88FDB359A9}" name="Asymmetric (10)" dataDxfId="90" totalsRowDxfId="89"/>
-    <tableColumn id="12" xr3:uid="{5956D0C5-9C90-4122-B08D-5295FEDB05A7}" name="Reflexive (11)" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="13" xr3:uid="{8BF12E7B-7E6E-4F93-8167-49BB8D845A8B}" name="Irreflexive (12)" dataDxfId="86" totalsRowDxfId="85"/>
-    <tableColumn id="14" xr3:uid="{F6A4A8D6-0928-496A-BF0F-0926974BB64E}" name="Inverse of (13)" dataDxfId="84" totalsRowDxfId="83"/>
-    <tableColumn id="15" xr3:uid="{71CC311B-405A-40DC-A69E-DD1F21998834}" name="Equivalente a(14)" dataDxfId="82" totalsRowDxfId="81"/>
-    <tableColumn id="16" xr3:uid="{D53389E7-5792-4813-AE78-49A25A9EDAF6}" name="Domain  (15)" dataDxfId="80" totalsRowDxfId="79">
+    <tableColumn id="3" xr3:uid="{42ACD1E1-902E-4432-A297-A8D4E3E6A39B}" name="PropData(2)" dataDxfId="107" totalsRowDxfId="106"/>
+    <tableColumn id="4" xr3:uid="{08ECA0E2-2D2F-446A-AAF6-2FD891B13A08}" name=" valData (3)" dataDxfId="105" totalsRowDxfId="104"/>
+    <tableColumn id="5" xr3:uid="{6086C35C-A33E-4114-B141-64B11971C1A1}" name="SuperProp (4)" dataDxfId="103" totalsRowDxfId="102"/>
+    <tableColumn id="6" xr3:uid="{535DC925-3C97-4408-B83A-988BF345193E}" name="Propriedade(5)" dataDxfId="101" totalsRowDxfId="100"/>
+    <tableColumn id="7" xr3:uid="{C4D22B6D-94D1-442A-97D3-E1AFB3FE98FC}" name="Functional (6)" dataDxfId="99" totalsRowDxfId="98"/>
+    <tableColumn id="8" xr3:uid="{254C2A3E-98CC-498D-9D66-425CCE933E22}" name="Inv functional  (7)" dataDxfId="97" totalsRowDxfId="96"/>
+    <tableColumn id="9" xr3:uid="{CA66A745-BB10-4919-97C1-491E2A8AFF79}" name="Transitive (8)" dataDxfId="95" totalsRowDxfId="94"/>
+    <tableColumn id="10" xr3:uid="{F220F0EB-8A04-44B3-9F33-2CE7DEAEA278}" name="Symmetric (9)" dataDxfId="93" totalsRowDxfId="92"/>
+    <tableColumn id="11" xr3:uid="{BE3C1D12-0B80-4267-A7C6-AB88FDB359A9}" name="Asymmetric (10)" dataDxfId="91" totalsRowDxfId="90"/>
+    <tableColumn id="12" xr3:uid="{5956D0C5-9C90-4122-B08D-5295FEDB05A7}" name="Reflexive (11)" dataDxfId="89" totalsRowDxfId="88"/>
+    <tableColumn id="13" xr3:uid="{8BF12E7B-7E6E-4F93-8167-49BB8D845A8B}" name="Irreflexive (12)" dataDxfId="87" totalsRowDxfId="86"/>
+    <tableColumn id="14" xr3:uid="{F6A4A8D6-0928-496A-BF0F-0926974BB64E}" name="Inverse of (13)" dataDxfId="85" totalsRowDxfId="84"/>
+    <tableColumn id="15" xr3:uid="{71CC311B-405A-40DC-A69E-DD1F21998834}" name="Equivalente a(14)" dataDxfId="83" totalsRowDxfId="82"/>
+    <tableColumn id="16" xr3:uid="{D53389E7-5792-4813-AE78-49A25A9EDAF6}" name="Domain  (15)" dataDxfId="81" totalsRowDxfId="80">
       <calculatedColumnFormula>P1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{F9388D82-F1CF-4707-8C27-B9B9F68C7435}" name=" Range (16)" dataDxfId="78" totalsRowDxfId="77">
+    <tableColumn id="17" xr3:uid="{F9388D82-F1CF-4707-8C27-B9B9F68C7435}" name=" Range (16)" dataDxfId="79" totalsRowDxfId="78">
       <calculatedColumnFormula>Q1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{458CD5C3-8971-431C-9F74-B445CB1B4F29}" name="Anot. Ajuda PROP (17)" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="19" xr3:uid="{79ADE3D3-2E35-47E2-A082-CFFFD7E257CF}" name="Anot. Ajuda DATA (18)" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="20" xr3:uid="{B1BB07F3-F9E0-4A1C-8EEB-D0705E508AEE}" name="Functional (19)" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="21" xr3:uid="{08560BEC-DA9D-4E18-9876-37313CE0655A}" name="Comentário do Valor(20)" dataDxfId="70" totalsRowDxfId="69">
+    <tableColumn id="18" xr3:uid="{458CD5C3-8971-431C-9F74-B445CB1B4F29}" name="Anot. Ajuda PROP (17)" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="19" xr3:uid="{79ADE3D3-2E35-47E2-A082-CFFFD7E257CF}" name="Anot. Ajuda DATA (18)" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="20" xr3:uid="{B1BB07F3-F9E0-4A1C-8EEB-D0705E508AEE}" name="Functional (19)" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="21" xr3:uid="{08560BEC-DA9D-4E18-9876-37313CE0655A}" name="Comentário do Valor(20)" dataDxfId="71" totalsRowDxfId="70">
       <calculatedColumnFormula>_xlfn.CONCAT("Refere-se a propriedade  ",F2, "  &gt;  ",C2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{B9A108B1-E631-4A2B-AADF-793AB36493B4}" name="Descrição Textual Livre (21)" totalsRowFunction="count" dataDxfId="68" totalsRowDxfId="67">
+    <tableColumn id="22" xr3:uid="{B9A108B1-E631-4A2B-AADF-793AB36493B4}" name="Descrição Textual Livre (21)" totalsRowFunction="count" dataDxfId="69" totalsRowDxfId="68">
       <calculatedColumnFormula>C2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13156,29 +13153,29 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A9A5534D-E861-437F-9B41-152E1BBB3624}" name="Tabla4" displayName="Tabla4" ref="A1:U3" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="63" totalsRowBorderDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A9A5534D-E861-437F-9B41-152E1BBB3624}" name="Tabla4" displayName="Tabla4" ref="A1:U3" totalsRowShown="0" headerRowDxfId="67" dataDxfId="65" headerRowBorderDxfId="66" tableBorderDxfId="64" totalsRowBorderDxfId="63">
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{4F26C7F2-7D06-40CB-B848-F667194D9647}" name="1" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{F921A453-730B-4AC8-852C-EFFDCF030CCA}" name="Disjunta 1" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{23BEAC2C-6ADF-4C5A-B64D-4A2189CA8ACD}" name="Disjunta 2" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{21B9136C-D0D8-484E-A2BE-E4977101D4DB}" name="Disjunta 3" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{1A43957A-CCF1-44E5-BCCD-13F81C3A45EC}" name="Disjunta 4" dataDxfId="57"/>
-    <tableColumn id="6" xr3:uid="{25855431-7914-4676-BDEF-21EDC5AEA531}" name="Disjunta 5" dataDxfId="56"/>
-    <tableColumn id="7" xr3:uid="{B9C6D84B-4C90-464D-8249-79E106486DD3}" name="Disjunta 6" dataDxfId="55"/>
-    <tableColumn id="8" xr3:uid="{F3E92F9C-C39B-4C1E-85C9-15118FEFA66F}" name="Disjunta 7" dataDxfId="54"/>
-    <tableColumn id="9" xr3:uid="{3CC69936-B860-4ABA-AA56-15BBA0C1C3F5}" name="Disjunta 8" dataDxfId="53"/>
-    <tableColumn id="10" xr3:uid="{3FB0F5C3-9FB7-46C3-8C1A-CE12E425D658}" name="Disjunta 9" dataDxfId="52"/>
-    <tableColumn id="11" xr3:uid="{5D16196F-CC26-45A8-8B0C-4607A903F65A}" name="Disjunta 10" dataDxfId="51"/>
-    <tableColumn id="12" xr3:uid="{41A23864-2363-4896-9F54-55AC6CFCE6CD}" name="Disjunta 11" dataDxfId="50"/>
-    <tableColumn id="13" xr3:uid="{DC03A272-46F6-40A7-BA62-43D8BD6241CC}" name="Disjunta 12" dataDxfId="49"/>
-    <tableColumn id="14" xr3:uid="{3C362C12-0371-4E21-9F34-4F9FCD93495D}" name="Disjunta 13" dataDxfId="48"/>
-    <tableColumn id="15" xr3:uid="{07396994-8990-4C41-96A2-BAB03ABDB677}" name="Disjunta 14" dataDxfId="47"/>
-    <tableColumn id="16" xr3:uid="{A03247BB-A7CD-4588-AD22-F4D4AA18275C}" name="Disjunta 15" dataDxfId="46"/>
-    <tableColumn id="17" xr3:uid="{875CA327-F02E-49D1-ABB5-F3413E63868F}" name="Disjunta 16" dataDxfId="45"/>
-    <tableColumn id="18" xr3:uid="{6843B603-EBBA-43D1-8F1B-214357E4C544}" name="Disjunta 17" dataDxfId="44"/>
-    <tableColumn id="19" xr3:uid="{08263685-78DC-449B-9B4F-5565A721B82C}" name="Disjunta 18" dataDxfId="43"/>
-    <tableColumn id="20" xr3:uid="{C3656408-6EB9-4B43-8A8E-4D686919DD2A}" name="Disjunta 19" dataDxfId="42"/>
-    <tableColumn id="21" xr3:uid="{4D5BB609-CA03-4420-BBFE-E94235011FEA}" name="Disjunta 20" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{4F26C7F2-7D06-40CB-B848-F667194D9647}" name="1" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{F921A453-730B-4AC8-852C-EFFDCF030CCA}" name="Disjunta 1" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{23BEAC2C-6ADF-4C5A-B64D-4A2189CA8ACD}" name="Disjunta 2" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{21B9136C-D0D8-484E-A2BE-E4977101D4DB}" name="Disjunta 3" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{1A43957A-CCF1-44E5-BCCD-13F81C3A45EC}" name="Disjunta 4" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{25855431-7914-4676-BDEF-21EDC5AEA531}" name="Disjunta 5" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{B9C6D84B-4C90-464D-8249-79E106486DD3}" name="Disjunta 6" dataDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{F3E92F9C-C39B-4C1E-85C9-15118FEFA66F}" name="Disjunta 7" dataDxfId="55"/>
+    <tableColumn id="9" xr3:uid="{3CC69936-B860-4ABA-AA56-15BBA0C1C3F5}" name="Disjunta 8" dataDxfId="54"/>
+    <tableColumn id="10" xr3:uid="{3FB0F5C3-9FB7-46C3-8C1A-CE12E425D658}" name="Disjunta 9" dataDxfId="53"/>
+    <tableColumn id="11" xr3:uid="{5D16196F-CC26-45A8-8B0C-4607A903F65A}" name="Disjunta 10" dataDxfId="52"/>
+    <tableColumn id="12" xr3:uid="{41A23864-2363-4896-9F54-55AC6CFCE6CD}" name="Disjunta 11" dataDxfId="51"/>
+    <tableColumn id="13" xr3:uid="{DC03A272-46F6-40A7-BA62-43D8BD6241CC}" name="Disjunta 12" dataDxfId="50"/>
+    <tableColumn id="14" xr3:uid="{3C362C12-0371-4E21-9F34-4F9FCD93495D}" name="Disjunta 13" dataDxfId="49"/>
+    <tableColumn id="15" xr3:uid="{07396994-8990-4C41-96A2-BAB03ABDB677}" name="Disjunta 14" dataDxfId="48"/>
+    <tableColumn id="16" xr3:uid="{A03247BB-A7CD-4588-AD22-F4D4AA18275C}" name="Disjunta 15" dataDxfId="47"/>
+    <tableColumn id="17" xr3:uid="{875CA327-F02E-49D1-ABB5-F3413E63868F}" name="Disjunta 16" dataDxfId="46"/>
+    <tableColumn id="18" xr3:uid="{6843B603-EBBA-43D1-8F1B-214357E4C544}" name="Disjunta 17" dataDxfId="45"/>
+    <tableColumn id="19" xr3:uid="{08263685-78DC-449B-9B4F-5565A721B82C}" name="Disjunta 18" dataDxfId="44"/>
+    <tableColumn id="20" xr3:uid="{C3656408-6EB9-4B43-8A8E-4D686919DD2A}" name="Disjunta 19" dataDxfId="43"/>
+    <tableColumn id="21" xr3:uid="{4D5BB609-CA03-4420-BBFE-E94235011FEA}" name="Disjunta 20" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13483,10 +13480,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1CF42B-C783-4349-9A5C-FEC66E5FAE0F}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G32" sqref="G32"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13501,15 +13498,14 @@
     <col min="9" max="9" width="12.77734375" style="38" customWidth="1"/>
     <col min="10" max="10" width="13" style="38" customWidth="1"/>
     <col min="11" max="11" width="14.21875" style="38" customWidth="1"/>
-    <col min="12" max="12" width="11" style="47" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5546875" style="47" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" style="47" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5546875" style="47" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="59.77734375" style="47" customWidth="1"/>
-    <col min="17" max="17" width="32" style="47" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.109375" style="57" customWidth="1"/>
-    <col min="19" max="19" width="13.88671875" style="47" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9" style="47" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" style="47" customWidth="1"/>
+    <col min="13" max="13" width="8" style="47" customWidth="1"/>
+    <col min="14" max="15" width="7.77734375" style="47" customWidth="1"/>
+    <col min="16" max="16" width="45.6640625" style="47" customWidth="1"/>
+    <col min="17" max="17" width="14.88671875" style="47" customWidth="1"/>
+    <col min="18" max="18" width="8.33203125" style="56" customWidth="1"/>
+    <col min="19" max="19" width="12.88671875" style="47" customWidth="1"/>
+    <col min="20" max="20" width="9" style="56" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="11.109375" style="47"/>
   </cols>
   <sheetData>
@@ -13580,19 +13576,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>66</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>131</v>
       </c>
       <c r="G2" s="36" t="s">
         <v>19</v>
@@ -13639,7 +13635,7 @@
       <c r="S2" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="T2" s="51" t="str">
+      <c r="T2" s="64" t="str">
         <f t="shared" ref="T2:T11" si="3">_xlfn.CONCAT("Normas-key_",A2)</f>
         <v>Normas-key_2</v>
       </c>
@@ -13649,7 +13645,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>63</v>
@@ -13660,7 +13656,7 @@
       <c r="E3" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="52" t="s">
         <v>103</v>
       </c>
       <c r="G3" s="36" t="s">
@@ -13703,12 +13699,12 @@
         <v>Consultar  SUS-SomaSUS</v>
       </c>
       <c r="R3" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S3" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="T3" s="51" t="str">
+      <c r="T3" s="64" t="str">
         <f t="shared" si="3"/>
         <v>Normas-key_3</v>
       </c>
@@ -13718,7 +13714,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>63</v>
@@ -13772,12 +13768,12 @@
         <v>Consultar  SUS-RDC50</v>
       </c>
       <c r="R4" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S4" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="T4" s="51" t="str">
+      <c r="T4" s="64" t="str">
         <f t="shared" si="3"/>
         <v>Normas-key_4</v>
       </c>
@@ -13786,10 +13782,10 @@
       <c r="A5" s="48">
         <v>5</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="53" t="s">
         <v>78</v>
       </c>
       <c r="D5" s="28" t="s">
@@ -13798,7 +13794,7 @@
       <c r="E5" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="54" t="s">
         <v>87</v>
       </c>
       <c r="G5" s="36" t="s">
@@ -13816,19 +13812,19 @@
       <c r="K5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="56" t="str">
+      <c r="L5" s="55" t="str">
         <f t="shared" si="0"/>
         <v>Trata-se de: Projeto</v>
       </c>
-      <c r="M5" s="56" t="str">
+      <c r="M5" s="55" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Limite </v>
       </c>
-      <c r="N5" s="56" t="str">
+      <c r="N5" s="55" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">De Organização </v>
       </c>
-      <c r="O5" s="56" t="str">
+      <c r="O5" s="55" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Funcional </v>
       </c>
@@ -13839,7 +13835,7 @@
       <c r="Q5" s="50"/>
       <c r="R5" s="50"/>
       <c r="S5" s="50"/>
-      <c r="T5" s="51" t="str">
+      <c r="T5" s="64" t="str">
         <f t="shared" si="3"/>
         <v>Normas-key_5</v>
       </c>
@@ -13848,10 +13844,10 @@
       <c r="A6" s="48">
         <v>6</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="53" t="s">
         <v>78</v>
       </c>
       <c r="D6" s="28" t="s">
@@ -13860,7 +13856,7 @@
       <c r="E6" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="54" t="s">
         <v>77</v>
       </c>
       <c r="G6" s="36" t="s">
@@ -13901,7 +13897,7 @@
       <c r="Q6" s="50"/>
       <c r="R6" s="50"/>
       <c r="S6" s="50"/>
-      <c r="T6" s="51" t="str">
+      <c r="T6" s="64" t="str">
         <f t="shared" si="3"/>
         <v>Normas-key_6</v>
       </c>
@@ -13910,10 +13906,10 @@
       <c r="A7" s="48">
         <v>7</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="53" t="s">
         <v>78</v>
       </c>
       <c r="D7" s="28" t="s">
@@ -13922,7 +13918,7 @@
       <c r="E7" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="54" t="s">
         <v>76</v>
       </c>
       <c r="G7" s="36" t="s">
@@ -13963,7 +13959,7 @@
       <c r="Q7" s="50"/>
       <c r="R7" s="50"/>
       <c r="S7" s="50"/>
-      <c r="T7" s="51" t="str">
+      <c r="T7" s="64" t="str">
         <f t="shared" si="3"/>
         <v>Normas-key_7</v>
       </c>
@@ -13972,10 +13968,10 @@
       <c r="A8" s="48">
         <v>8</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="53" t="s">
         <v>78</v>
       </c>
       <c r="D8" s="28" t="s">
@@ -14025,7 +14021,7 @@
       <c r="Q8" s="50"/>
       <c r="R8" s="50"/>
       <c r="S8" s="50"/>
-      <c r="T8" s="51" t="str">
+      <c r="T8" s="64" t="str">
         <f t="shared" si="3"/>
         <v>Normas-key_8</v>
       </c>
@@ -14034,10 +14030,10 @@
       <c r="A9" s="48">
         <v>9</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="53" t="s">
         <v>78</v>
       </c>
       <c r="D9" s="28" t="s">
@@ -14087,7 +14083,7 @@
       <c r="Q9" s="50"/>
       <c r="R9" s="50"/>
       <c r="S9" s="50"/>
-      <c r="T9" s="51" t="str">
+      <c r="T9" s="64" t="str">
         <f t="shared" si="3"/>
         <v>Normas-key_9</v>
       </c>
@@ -14096,10 +14092,10 @@
       <c r="A10" s="48">
         <v>10</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="53" t="s">
         <v>78</v>
       </c>
       <c r="D10" s="28" t="s">
@@ -14149,7 +14145,7 @@
       <c r="Q10" s="50"/>
       <c r="R10" s="50"/>
       <c r="S10" s="50"/>
-      <c r="T10" s="51" t="str">
+      <c r="T10" s="64" t="str">
         <f t="shared" si="3"/>
         <v>Normas-key_10</v>
       </c>
@@ -14158,10 +14154,10 @@
       <c r="A11" s="48">
         <v>11</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="53" t="s">
         <v>78</v>
       </c>
       <c r="D11" s="28" t="s">
@@ -14170,7 +14166,7 @@
       <c r="E11" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="54" t="s">
+      <c r="F11" s="53" t="s">
         <v>84</v>
       </c>
       <c r="G11" s="40" t="s">
@@ -14188,19 +14184,19 @@
       <c r="K11" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="56" t="str">
+      <c r="L11" s="55" t="str">
         <f t="shared" si="6"/>
         <v>Trata-se de: Projeto</v>
       </c>
-      <c r="M11" s="56" t="str">
+      <c r="M11" s="55" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">Limite </v>
       </c>
-      <c r="N11" s="56" t="str">
+      <c r="N11" s="55" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">De Construção </v>
       </c>
-      <c r="O11" s="56" t="str">
+      <c r="O11" s="55" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">Edificável </v>
       </c>
@@ -14211,7 +14207,7 @@
       <c r="Q11" s="50"/>
       <c r="R11" s="50"/>
       <c r="S11" s="50"/>
-      <c r="T11" s="51" t="str">
+      <c r="T11" s="64" t="str">
         <f t="shared" si="3"/>
         <v>Normas-key_11</v>
       </c>
@@ -14222,50 +14218,50 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="40" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2 G1:K13 G14:G21 H14:K22 G23:K1048576">
-    <cfRule type="cellIs" dxfId="37" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="13" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F7">
-    <cfRule type="duplicateValues" dxfId="36" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="118"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="120"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F11">
-    <cfRule type="duplicateValues" dxfId="26" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F1048576 F1 G22">
-    <cfRule type="duplicateValues" dxfId="16" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="22"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14283,20 +14279,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6B38C3-987C-42D5-BAB0-D66087DA7BA3}">
   <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B22" sqref="B22"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" style="29" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="9" style="30" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" style="30" customWidth="1"/>
     <col min="4" max="4" width="7.109375" style="29" customWidth="1"/>
     <col min="5" max="5" width="9.109375" style="30" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="30" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" style="30" customWidth="1"/>
     <col min="7" max="7" width="7.33203125" style="29" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="29" customWidth="1"/>
     <col min="9" max="10" width="6.6640625" style="29" customWidth="1"/>
@@ -14383,8 +14379,8 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>107</v>
+      <c r="A2" s="3">
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>68</v>
@@ -14393,7 +14389,7 @@
         <f t="shared" ref="C2:C3" si="0">F2</f>
         <v>de.classificação</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="61" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -14430,7 +14426,7 @@
         <v>19</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q2" s="11" t="s">
         <v>102</v>
@@ -14457,7 +14453,7 @@
     </row>
     <row r="3" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="17" t="str">
         <f>E3</f>
@@ -14467,7 +14463,7 @@
         <f t="shared" si="0"/>
         <v>códigos.sus</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="62" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="18" t="str">
@@ -14475,7 +14471,7 @@
         <v>de.classificação</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G3" s="20" t="s">
         <v>19</v>
@@ -14534,7 +14530,7 @@
     </row>
     <row r="4" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="22" t="str">
         <f>E4</f>
@@ -14544,7 +14540,7 @@
         <f>MID(F4,FIND(".",F4,1)+1,100)</f>
         <v>código-sus</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="63" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="2" t="str">
@@ -14552,7 +14548,7 @@
         <v>códigos.sus</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G4" s="24" t="s">
         <v>19</v>
@@ -14611,7 +14607,7 @@
     </row>
     <row r="5" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="22" t="str">
         <f t="shared" ref="B5:B6" si="7">E5</f>
@@ -14621,7 +14617,7 @@
         <f t="shared" ref="C5:C6" si="8">MID(F5,FIND(".",F5,1)+1,100)</f>
         <v>ambiente</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="63" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2" t="str">
@@ -14629,7 +14625,7 @@
         <v>códigos.sus</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G5" s="24" t="s">
         <v>19</v>
@@ -14688,7 +14684,7 @@
     </row>
     <row r="6" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="22" t="str">
         <f t="shared" si="7"/>
@@ -14698,7 +14694,7 @@
         <f t="shared" si="8"/>
         <v>equipamento</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="63" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="2" t="str">
@@ -14706,7 +14702,7 @@
         <v>códigos.sus</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>19</v>
@@ -14765,7 +14761,7 @@
     </row>
     <row r="7" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="22" t="str">
         <f t="shared" ref="B7:B8" si="10">E7</f>
@@ -14775,7 +14771,7 @@
         <f>MID(F7,FIND(".",F7,1)+1,100)</f>
         <v>ufuncional</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="63" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="2" t="str">
@@ -14783,7 +14779,7 @@
         <v>códigos.sus</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G7" s="24" t="s">
         <v>19</v>
@@ -14842,7 +14838,7 @@
     </row>
     <row r="8" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="22" t="str">
         <f t="shared" si="10"/>
@@ -14852,7 +14848,7 @@
         <f t="shared" ref="C8:C9" si="13">MID(F8,FIND(".",F8,1)+1,100)</f>
         <v>volume</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="63" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="2" t="str">
@@ -14860,7 +14856,7 @@
         <v>códigos.sus</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G8" s="24" t="s">
         <v>19</v>
@@ -14919,7 +14915,7 @@
     </row>
     <row r="9" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9" s="22" t="str">
         <f t="shared" ref="B9" si="15">E9</f>
@@ -14929,7 +14925,7 @@
         <f t="shared" si="13"/>
         <v>setor</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="63" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="2" t="str">
@@ -14937,7 +14933,7 @@
         <v>códigos.sus</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G9" s="24" t="s">
         <v>19</v>
@@ -14996,7 +14992,7 @@
     </row>
     <row r="10" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>E10</f>
@@ -15006,7 +15002,7 @@
         <f>F10</f>
         <v>códigos.nbr</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="62" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="18" t="str">
@@ -15014,7 +15010,7 @@
         <v>de.classificação</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G10" s="20" t="s">
         <v>19</v>
@@ -15044,10 +15040,10 @@
         <v>19</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R10" s="12" t="str">
         <f t="shared" si="1"/>
@@ -15071,7 +15067,7 @@
     </row>
     <row r="11" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" s="22" t="str">
         <f>E11</f>
@@ -15081,7 +15077,7 @@
         <f>MID(F11,FIND(".",F11,1)+1,100)</f>
         <v>norma</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="63" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="2" t="str">
@@ -15148,7 +15144,7 @@
     </row>
     <row r="12" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12" s="22" t="str">
         <f>E12</f>
@@ -15158,7 +15154,7 @@
         <f>MID(F12,FIND(".",F12,1)+1,100)</f>
         <v>parte</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="63" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="2" t="str">
@@ -15166,7 +15162,7 @@
         <v>códigos.nbr</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G12" s="24" t="s">
         <v>19</v>
@@ -15225,7 +15221,7 @@
     </row>
     <row r="13" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" s="22" t="str">
         <f>E13</f>
@@ -15235,7 +15231,7 @@
         <f>MID(F13,FIND(".",F13,1)+1,100)</f>
         <v>descrição</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="63" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="2" t="str">
@@ -15302,7 +15298,7 @@
     </row>
     <row r="14" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14" s="22" t="str">
         <f t="shared" ref="B14:B24" si="19">E14</f>
@@ -15312,7 +15308,7 @@
         <f t="shared" ref="C14:C24" si="20">MID(F14,FIND(".",F14,1)+1,100)</f>
         <v>código-nbr</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="63" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="2" t="str">
@@ -15320,7 +15316,7 @@
         <v>códigos.nbr</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G14" s="24" t="s">
         <v>19</v>
@@ -15379,7 +15375,7 @@
     </row>
     <row r="15" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" s="22" t="str">
         <f t="shared" si="19"/>
@@ -15389,7 +15385,7 @@
         <f t="shared" si="20"/>
         <v>nbrcod-n0</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="63" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="2" t="str">
@@ -15397,7 +15393,7 @@
         <v>códigos.nbr</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G15" s="24" t="s">
         <v>19</v>
@@ -15456,7 +15452,7 @@
     </row>
     <row r="16" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" s="22" t="str">
         <f t="shared" si="19"/>
@@ -15466,7 +15462,7 @@
         <f t="shared" si="20"/>
         <v>nbrcod-n1</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="63" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="2" t="str">
@@ -15474,7 +15470,7 @@
         <v>códigos.nbr</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G16" s="24" t="s">
         <v>19</v>
@@ -15533,7 +15529,7 @@
     </row>
     <row r="17" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B17" s="22" t="str">
         <f t="shared" si="19"/>
@@ -15543,7 +15539,7 @@
         <f t="shared" si="20"/>
         <v>nbrcod-n2</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="63" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="2" t="str">
@@ -15551,7 +15547,7 @@
         <v>códigos.nbr</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G17" s="24" t="s">
         <v>19</v>
@@ -15610,7 +15606,7 @@
     </row>
     <row r="18" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B18" s="22" t="str">
         <f t="shared" si="19"/>
@@ -15620,7 +15616,7 @@
         <f t="shared" si="20"/>
         <v>nbrcod-n3</v>
       </c>
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="63" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="2" t="str">
@@ -15628,7 +15624,7 @@
         <v>códigos.nbr</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G18" s="24" t="s">
         <v>19</v>
@@ -15687,7 +15683,7 @@
     </row>
     <row r="19" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="22" t="str">
         <f t="shared" si="19"/>
@@ -15697,7 +15693,7 @@
         <f t="shared" si="20"/>
         <v>nbrcod-n4</v>
       </c>
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="63" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="2" t="str">
@@ -15705,7 +15701,7 @@
         <v>códigos.nbr</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G19" s="24" t="s">
         <v>19</v>
@@ -15764,7 +15760,7 @@
     </row>
     <row r="20" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="22" t="str">
         <f>E20</f>
@@ -15774,7 +15770,7 @@
         <f t="shared" si="20"/>
         <v>nbrcod-n5</v>
       </c>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="63" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="2" t="str">
@@ -15782,7 +15778,7 @@
         <v>códigos.nbr</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G20" s="24" t="s">
         <v>19</v>
@@ -15841,7 +15837,7 @@
     </row>
     <row r="21" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B21" s="22" t="str">
         <f>E21</f>
@@ -15851,7 +15847,7 @@
         <f t="shared" si="20"/>
         <v>nbrcod-n6</v>
       </c>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="63" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="2" t="str">
@@ -15859,7 +15855,7 @@
         <v>códigos.nbr</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G21" s="24" t="s">
         <v>19</v>
@@ -15918,7 +15914,7 @@
     </row>
     <row r="22" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B22" s="22" t="str">
         <f>E22</f>
@@ -15928,7 +15924,7 @@
         <f t="shared" si="20"/>
         <v>nbrcod-n7</v>
       </c>
-      <c r="D22" s="64" t="s">
+      <c r="D22" s="63" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="2" t="str">
@@ -15936,7 +15932,7 @@
         <v>códigos.nbr</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G22" s="24" t="s">
         <v>19</v>
@@ -15995,7 +15991,7 @@
     </row>
     <row r="23" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B23" s="22" t="str">
         <f>E23</f>
@@ -16005,7 +16001,7 @@
         <f t="shared" si="20"/>
         <v>nbrcod-n8</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="63" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="2" t="str">
@@ -16013,7 +16009,7 @@
         <v>códigos.nbr</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G23" s="24" t="s">
         <v>19</v>
@@ -16072,7 +16068,7 @@
     </row>
     <row r="24" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B24" s="22" t="str">
         <f t="shared" si="19"/>
@@ -16082,7 +16078,7 @@
         <f t="shared" si="20"/>
         <v>nbrcod-n9</v>
       </c>
-      <c r="D24" s="64" t="s">
+      <c r="D24" s="63" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="2" t="str">
@@ -16090,7 +16086,7 @@
         <v>códigos.nbr</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G24" s="24" t="s">
         <v>19</v>
@@ -16304,42 +16300,42 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2 D2:E2 B4:B9 E4:E9 B11:B24 E11:E24">
-    <cfRule type="cellIs" dxfId="8" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D24 Q9">
-    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:O24 T2:T24">
-    <cfRule type="cellIs" dxfId="4" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="18" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39:O1048576">
-    <cfRule type="cellIs" dxfId="3" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="30" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1">
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q39:Q1048576">
-    <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="28" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16569,7 +16565,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16591,128 +16587,128 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="7.8" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" style="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.5546875" style="47" customWidth="1"/>
     <col min="3" max="16384" width="11.44140625" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="58">
+      <c r="A1" s="57">
         <v>1</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="58" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="31.2" x14ac:dyDescent="0.15">
-      <c r="A2" s="58">
+      <c r="A2" s="57">
         <v>2</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="59" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="31.2" x14ac:dyDescent="0.15">
-      <c r="A3" s="58">
+      <c r="A3" s="57">
         <v>3</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="59" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="39" x14ac:dyDescent="0.15">
-      <c r="A4" s="58">
+      <c r="A4" s="57">
         <v>4</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="59" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="54.6" x14ac:dyDescent="0.15">
-      <c r="A5" s="58">
+      <c r="A5" s="57">
         <v>5</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="59" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="58">
+      <c r="A6" s="57">
         <v>6</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="58" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="58">
+      <c r="A7" s="57">
         <v>7</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="60" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="58">
+      <c r="A8" s="57">
         <v>8</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="59" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="58">
+      <c r="A9" s="57">
         <v>9</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="59" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="58">
+      <c r="A10" s="57">
         <v>10</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="60" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="58">
+      <c r="A11" s="57">
         <v>11</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="60" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="58">
+      <c r="A12" s="57">
         <v>12</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="60" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="58">
+      <c r="A13" s="57">
         <v>13</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="60" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="58">
+      <c r="A14" s="57">
         <v>14</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="60" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="58">
+      <c r="A15" s="57">
         <v>15</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="60" t="s">
         <v>94</v>
       </c>
     </row>
